--- a/Podaci_uspesnost softverskih projekata.xlsx
+++ b/Podaci_uspesnost softverskih projekata.xlsx
@@ -52,40 +52,40 @@
     <t xml:space="preserve">PRIORITY</t>
   </si>
   <si>
-    <t xml:space="preserve">SUCCESSFUL AD-HOC: What percentage of your ad-hoc projects have been "successful" within your organization?</t>
+    <t xml:space="preserve">adhoc_successful</t>
   </si>
   <si>
-    <t xml:space="preserve">CHALLENGED AD-HOC: What percentage of your ad-hoc projects have been "challenged" within your organization?</t>
+    <t xml:space="preserve">adhoc_challenged</t>
   </si>
   <si>
-    <t xml:space="preserve">FAILED AD-HOC: What percentage of your ad-hoc projects have "failed" within your organization?</t>
+    <t xml:space="preserve">adhoc_failed</t>
   </si>
   <si>
-    <t xml:space="preserve">SUCCESSFUL ITERATIVE: What percentage of your iterative projects have been "successful" within your organization?</t>
+    <t xml:space="preserve">iterative_successful</t>
   </si>
   <si>
-    <t xml:space="preserve">CHALLENGED ITERATIVE: What percentage of your iterative projects have been "challenged" within your organization?</t>
+    <t xml:space="preserve">iterative_challenged</t>
   </si>
   <si>
-    <t xml:space="preserve">FAILED ITERATIVE: What percentage of your iterative projects have "failed" within your organization?</t>
+    <t xml:space="preserve">iterative_failed</t>
   </si>
   <si>
-    <t xml:space="preserve">SUCCESSFUL AGILE: What percentage of your agile projects have been "successful" within your organization?</t>
+    <t xml:space="preserve">agile_successful</t>
   </si>
   <si>
-    <t xml:space="preserve">CHALLENGED AGILE: What percentage of your agile projects have been "challenged" within your organization?</t>
+    <t xml:space="preserve">agile_challenged</t>
   </si>
   <si>
-    <t xml:space="preserve">FAILED AGILE: What percentage of your agile projects have "failed" within your organization?</t>
+    <t xml:space="preserve">agile_failed</t>
   </si>
   <si>
-    <t xml:space="preserve">SUCCESSFUL TRADITIONAL: What percentage of your traditional projects have been "successful" within your organization?</t>
+    <t xml:space="preserve">traditional_succesful</t>
   </si>
   <si>
-    <t xml:space="preserve">CHALLENGED TRADITIONAL: What percentage of your traditional projects have been "challenged" within your organization?</t>
+    <t xml:space="preserve">traditional_challenged</t>
   </si>
   <si>
-    <t xml:space="preserve">FAILED TRADITIONAL: What percentage of your traditional projects have "failed" within your organization?</t>
+    <t xml:space="preserve">traditional_failed</t>
   </si>
   <si>
     <t xml:space="preserve">Response</t>
@@ -386,8 +386,8 @@
   </sheetPr>
   <dimension ref="A1:Y205"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
